--- a/MirrorMe/minimirrorme Elleke .xlsx
+++ b/MirrorMe/minimirrorme Elleke .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Afstuderen\uitprobeersels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Afstuderen\repos\ampersandmodels\MirrorMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E66CF-0075-46A6-9E6F-141712D01514}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,58 +591,60 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
     </row>
